--- a/doc/Es搜索api接口.xlsx
+++ b/doc/Es搜索api接口.xlsx
@@ -1309,6 +1309,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1318,36 +1375,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,69 +1419,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F29"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2733,113 +2733,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="5" t="s">
@@ -2857,13 +2857,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -2881,27 +2881,27 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="49"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="50"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="4" t="s">
@@ -2975,148 +2975,148 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="16" t="s">
@@ -3134,13 +3134,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="19" t="s">
@@ -3222,73 +3222,73 @@
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="49"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="50"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="1"/>
@@ -3301,95 +3301,95 @@
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B61" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" thickBot="1">
       <c r="B63" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="54"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
     </row>
     <row r="64" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B64" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B65" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="45"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="31"/>
     </row>
     <row r="66" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B66" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="38"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="38"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="59"/>
     </row>
     <row r="68" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B68" s="36"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="38"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="59"/>
     </row>
     <row r="69" spans="2:6" ht="13.5" thickBot="1">
       <c r="B69" s="16" t="s">
@@ -3407,13 +3407,13 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="48"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="28"/>
     </row>
     <row r="71" spans="2:6" ht="14.25" thickBot="1">
       <c r="B71" s="19" t="s">
@@ -3429,20 +3429,20 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B72" s="56"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="48"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
     </row>
     <row r="74" spans="2:6" ht="14.25" thickBot="1">
       <c r="B74" s="4" t="s">
@@ -3516,139 +3516,139 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="48"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="28"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="34"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="31"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="37"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="29"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="31"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="37"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="31"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="37"/>
     </row>
     <row r="84" spans="2:6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="34"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="40"/>
     </row>
     <row r="85" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
     </row>
     <row r="86" spans="2:6" ht="21" thickBot="1">
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
     </row>
     <row r="87" spans="2:6" ht="13.5" thickBot="1">
       <c r="B87" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
     </row>
     <row r="88" spans="2:6" ht="13.5" thickBot="1">
       <c r="B88" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="54"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="47"/>
     </row>
     <row r="89" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B89" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="42"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="50"/>
     </row>
     <row r="90" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B90" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="45"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B91" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
     </row>
     <row r="92" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="38"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
     </row>
     <row r="93" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B93" s="36"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="38"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="59"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="5" t="s">
@@ -3666,13 +3666,13 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
     </row>
     <row r="96" spans="2:6" ht="14.25" thickBot="1">
       <c r="B96" s="4" t="s">
@@ -3690,20 +3690,20 @@
       <c r="F96" s="7"/>
     </row>
     <row r="97" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B97" s="49"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="50"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="55"/>
     </row>
     <row r="98" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="48"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="28"/>
     </row>
     <row r="99" spans="2:6" ht="14.25" thickBot="1">
       <c r="B99" s="4" t="s">
@@ -3775,50 +3775,50 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="48"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="28"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="28"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="34"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="29"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="31"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="37"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="29"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="31"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="37"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="29"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="31"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="37"/>
     </row>
     <row r="109" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="34"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="40"/>
     </row>
     <row r="110" spans="2:6" ht="29.25" customHeight="1">
       <c r="B110" s="11"/>
@@ -3838,51 +3838,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B105:F109"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B80:F84"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="B53:F57"/>
@@ -3899,6 +3854,51 @@
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="B68:F68"/>
     <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B105:F109"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B80:F84"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
